--- a/tugas-uts/DataBuku.xlsx
+++ b/tugas-uts/DataBuku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data E(DataFolder)\kuliah\S1 Teknik Informatika\Data Mining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\DataMining\tugas-uts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Judul</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Pemanggil Cahaya (A Conjuring Of Light)</t>
-  </si>
-  <si>
-    <t>V. E. Schwab</t>
   </si>
   <si>
     <t>Comic</t>
@@ -124,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;Rp&quot;#,##0;[Red]&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0;[Red]&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,33 +211,29 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -535,17 +520,18 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B8" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,9 +564,7 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
@@ -672,7 +656,7 @@
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -692,14 +676,12 @@
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
@@ -710,10 +692,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -730,16 +712,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
@@ -749,28 +731,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Fellexandro+Ruby"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Laksmi+Pamuntjak"/>
-    <hyperlink ref="C3" r:id="rId4" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C4" r:id="rId5" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C5" r:id="rId6" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C7" r:id="rId8" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C8" r:id="rId9" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C9" r:id="rId10" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="C10" r:id="rId11" display="https://www.bukukita.com/searchresult.php?id=3&amp;key=55"/>
-    <hyperlink ref="B4" r:id="rId12" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Tere+Liye"/>
-    <hyperlink ref="B5" r:id="rId13" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Tere+Liye"/>
-    <hyperlink ref="B6" r:id="rId14" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Agustinus+Wibowo"/>
-    <hyperlink ref="B7" r:id="rId15" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Soji+Shimada"/>
-    <hyperlink ref="B9" r:id="rId16" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Sapardi+Djoko+Damono"/>
-    <hyperlink ref="B10" r:id="rId17" display="https://www.bukukita.com/searchresult.php?page=1&amp;id=2&amp;match=1&amp;key=Okky+Puspa+Madasari"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>